--- a/Comparisons.xlsx
+++ b/Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mishk\D\tuni\JavaFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA510E7-060E-4658-9CEA-5B04B32150C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182122E-58E2-4418-9D49-0416AD074C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4F5B39C6-E5F3-4804-B92A-0BB841D07DAB}"/>
+    <workbookView xWindow="12444" yWindow="3120" windowWidth="20400" windowHeight="12216" xr2:uid="{4F5B39C6-E5F3-4804-B92A-0BB841D07DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,7 +1750,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,34 +1798,34 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>78358</v>
+        <v>499500</v>
       </c>
       <c r="C2">
-        <v>184984</v>
+        <v>1999000</v>
       </c>
       <c r="D2">
-        <v>279399</v>
+        <v>4498500</v>
       </c>
       <c r="E2">
-        <v>378258</v>
+        <v>7998000</v>
       </c>
       <c r="F2">
-        <v>480191</v>
+        <v>12497500</v>
       </c>
       <c r="G2">
-        <v>570168</v>
+        <v>17997000</v>
       </c>
       <c r="H2">
-        <v>669909</v>
+        <v>24496500</v>
       </c>
       <c r="I2">
-        <v>772354</v>
+        <v>31996000</v>
       </c>
       <c r="J2">
-        <v>866015</v>
+        <v>40495500</v>
       </c>
       <c r="K2">
-        <v>967154</v>
+        <v>49995000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1973,34 +1972,34 @@
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>14</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>24</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>35</v>
       </c>
     </row>
@@ -2008,34 +2007,34 @@
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>13</v>
       </c>
     </row>
@@ -2043,34 +2042,34 @@
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -2078,34 +2077,34 @@
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>7</v>
       </c>
     </row>
